--- a/src/main/java/com/qa/datautitlities/LoginData.xlsx
+++ b/src/main/java/com/qa/datautitlities/LoginData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Valid Login</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>vinodmoger126@rediffmail.com</t>
-  </si>
-  <si>
-    <t>99Siddanmane</t>
   </si>
 </sst>
 </file>
@@ -490,9 +487,7 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
